--- a/WC-UNC-Feb22.xlsx
+++ b/WC-UNC-Feb22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WindWorkforceTeam/Shared Documents/Offshore Workforce/Supply Chain/February 2022 Scenario Updates (Most Current)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Reports\Plots\supply-chain-projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{66B6DC28-54E3-458F-9D91-3D5FAD4B4F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B182B9E7-B4A5-42B0-9100-63F7CABE4053}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30372E9A-B515-4572-ACAC-BAD60BAAF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-16785" windowWidth="21840" windowHeight="38040" firstSheet="4" activeTab="7" xr2:uid="{C3CA28CF-94FD-47D1-8867-9A9CD65560ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{C3CA28CF-94FD-47D1-8867-9A9CD65560ED}"/>
   </bookViews>
   <sheets>
     <sheet name="WC Scenarios" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Breakdowns" sheetId="27" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -16079,12 +16080,12 @@
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -16092,7 +16093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="C3">
         <v>2021</v>
@@ -16140,7 +16141,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="1">
         <v>0.25</v>
@@ -16195,7 +16196,7 @@
         <v>3977.7760798153208</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="1">
         <v>0.5</v>
@@ -16220,7 +16221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="1">
         <v>0.75</v>
@@ -16245,7 +16246,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
       <c r="B7" s="1">
         <v>1</v>
@@ -16300,7 +16301,7 @@
         <v>15911.104319261283</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
@@ -16308,7 +16309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="C10">
         <v>2021</v>
@@ -16356,7 +16357,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="1">
         <v>0.25</v>
@@ -16411,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="1">
         <v>0.5</v>
@@ -16436,7 +16437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="1">
         <v>0.75</v>
@@ -16461,7 +16462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="1">
         <v>1</v>
@@ -16516,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>0</v>
       </c>
@@ -16524,7 +16525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
       <c r="C27">
         <v>2021</v>
@@ -16572,7 +16573,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="1">
         <v>0.25</v>
@@ -16643,7 +16644,7 @@
       </c>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="1">
         <v>0.5</v>
@@ -16669,7 +16670,7 @@
       </c>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
       <c r="B30" s="1">
         <v>0.75</v>
@@ -16695,7 +16696,7 @@
       </c>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="1">
         <v>1</v>
@@ -16766,11 +16767,11 @@
       </c>
       <c r="S31" s="7"/>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C57" s="9"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -16790,7 +16791,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -16810,7 +16811,7 @@
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -16830,7 +16831,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -16850,7 +16851,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -16870,7 +16871,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -16890,7 +16891,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -16910,7 +16911,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -16930,11 +16931,11 @@
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C68" s="9"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -16953,7 +16954,7 @@
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -16972,7 +16973,7 @@
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -16991,7 +16992,7 @@
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -17010,7 +17011,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -17029,7 +17030,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -17048,7 +17049,7 @@
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -17067,7 +17068,7 @@
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -17107,9 +17108,9 @@
       <selection activeCell="N198" sqref="N198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -17122,7 +17123,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -17169,12 +17170,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -17304,16 +17305,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -17331,7 +17332,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -17349,13 +17350,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -17372,7 +17373,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -17390,7 +17391,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -17408,16 +17409,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -17435,7 +17436,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -17453,10 +17454,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -17503,12 +17504,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -17563,7 +17564,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -17616,7 +17617,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -17669,7 +17670,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -17724,7 +17725,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -17775,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -17826,16 +17827,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -17889,7 +17890,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -17941,7 +17942,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -17993,7 +17994,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -18046,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -18097,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -18148,13 +18149,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -18173,7 +18174,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -18192,7 +18193,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -18211,7 +18212,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -18230,7 +18231,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -18249,7 +18250,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -18268,13 +18269,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -18293,7 +18294,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -18312,7 +18313,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -18331,7 +18332,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -18351,7 +18352,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -18370,7 +18371,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -18389,22 +18390,22 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
       <c r="AV55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -18421,7 +18422,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -18438,7 +18439,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -18455,7 +18456,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -18470,7 +18471,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -18487,7 +18488,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -18504,107 +18505,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -18632,14 +18633,14 @@
       <selection activeCell="F103" sqref="F103:G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="4" width="16.140625" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="4" width="16.1796875" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>22</v>
       </c>
@@ -18650,7 +18651,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -18673,7 +18674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -18699,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -18725,7 +18726,7 @@
         <v>1.8604982466638463E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -18751,7 +18752,7 @@
         <v>3.7209964933276926E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>3.7209964933276926E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -18803,7 +18804,7 @@
         <v>3.2811770520892951E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -18829,7 +18830,7 @@
         <v>3.7200572275496592E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -18855,7 +18856,7 @@
         <v>0.11484119684635267</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -18881,7 +18882,7 @@
         <v>0.15127325052081525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -18907,7 +18908,7 @@
         <v>0.10589127538779801</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -18933,7 +18934,7 @@
         <v>0.10892801892893983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
@@ -18951,7 +18952,7 @@
         <v>1291.58117795</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
@@ -18962,7 +18963,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -19011,7 +19012,7 @@
         <v>0.16127374024156241</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -19037,7 +19038,7 @@
         <v>0.2520056549673183</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -19063,7 +19064,7 @@
         <v>7.0057862801751553E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -19089,7 +19090,7 @@
         <v>3.7443338923634846E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>45</v>
       </c>
@@ -19115,7 +19116,7 @@
         <v>2.6803997488620491E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
@@ -19138,7 +19139,7 @@
         <v>4.9987278053602507E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
         <v>13</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>713.560135876</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>9</v>
       </c>
@@ -19167,7 +19168,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>0.22159590179383795</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -19242,7 +19243,7 @@
         <v>9.3275614660299294E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -19268,7 +19269,7 @@
         <v>4.6637508643696236E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>50</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>6.4377590158630787E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>51</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>5.8264801056652337E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>52</v>
       </c>
@@ -19346,7 +19347,7 @@
         <v>5.1897019567597506E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>53</v>
       </c>
@@ -19372,7 +19373,7 @@
         <v>8.9904736375849698E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>54</v>
       </c>
@@ -19398,7 +19399,7 @@
         <v>2.5560998745069074E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
         <v>13</v>
       </c>
@@ -19416,7 +19417,7 @@
         <v>520.36173127099994</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -19425,18 +19426,18 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="26"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -19445,18 +19446,18 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -19465,18 +19466,18 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="26"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -19485,32 +19486,32 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>17</v>
       </c>
@@ -19521,7 +19522,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -19544,7 +19545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -19570,14 +19571,14 @@
         <v>0.65661990150712635</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>56</v>
       </c>
@@ -19588,7 +19589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -19637,7 +19638,7 @@
         <v>0.28662575735022</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>19</v>
       </c>
@@ -19648,7 +19649,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -19671,7 +19672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -19697,7 +19698,7 @@
         <v>0.61617965155937326</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>20</v>
       </c>
@@ -19708,7 +19709,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -19731,7 +19732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -19757,12 +19758,12 @@
         <v>0.61617965155937326</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>61</v>
       </c>
@@ -19773,7 +19774,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -19796,7 +19797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>62</v>
       </c>
@@ -19822,7 +19823,7 @@
         <v>6.7037700984500279E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>0.13429026253448184</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>64</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>0.13429026253448184</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -19888,7 +19889,7 @@
         <v>0.15577669699339344</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -19910,7 +19911,7 @@
         <v>4.8694780030613151E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -19932,7 +19933,7 @@
         <v>0.11495245911310045</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="30" t="s">
         <v>13</v>
       </c>
@@ -19950,12 +19951,12 @@
         <v>6890.5152356999997</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>68</v>
       </c>
@@ -19966,7 +19967,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -19989,7 +19990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>62</v>
       </c>
@@ -20015,7 +20016,7 @@
         <v>6.7037700984500279E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -20037,7 +20038,7 @@
         <v>0.13429026253448184</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -20059,7 +20060,7 @@
         <v>0.13429026253448184</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>55</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>0.15577669699339344</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>65</v>
       </c>
@@ -20103,7 +20104,7 @@
         <v>4.8694780030613151E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>0.11495245911310045</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="30" t="s">
         <v>13</v>
       </c>
@@ -20143,7 +20144,7 @@
         <v>6890.5152356999997</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
         <v>67</v>
       </c>
@@ -20170,12 +20171,12 @@
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="1" max="1" width="60.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -20225,7 +20226,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -20276,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -20327,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -20378,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -20429,7 +20430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -20480,7 +20481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -20531,7 +20532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -20582,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -20633,12 +20634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
@@ -20688,7 +20689,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -20739,7 +20740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -20790,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -20841,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -20892,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -20943,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -21045,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -21096,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>75</v>
       </c>
@@ -21116,9 +21117,9 @@
       <selection activeCell="E133" sqref="E132:E133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -21131,7 +21132,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -21178,12 +21179,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -21313,16 +21314,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -21340,7 +21341,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -21358,13 +21359,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -21381,7 +21382,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -21399,7 +21400,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -21417,16 +21418,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="19"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -21444,7 +21445,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -21462,10 +21463,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -21512,12 +21513,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -21572,7 +21573,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -21624,7 +21625,7 @@
       </c>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -21676,7 +21677,7 @@
       </c>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -21731,7 +21732,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -21782,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -21833,16 +21834,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -21896,7 +21897,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -21948,7 +21949,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -22000,7 +22001,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -22104,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -22155,13 +22156,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -22180,7 +22181,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -22199,7 +22200,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -22218,7 +22219,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -22237,7 +22238,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -22256,7 +22257,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -22275,13 +22276,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -22300,7 +22301,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -22319,7 +22320,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -22338,7 +22339,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -22358,7 +22359,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -22377,7 +22378,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -22396,17 +22397,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -22423,7 +22424,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -22440,7 +22441,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -22457,7 +22458,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -22472,7 +22473,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -22489,7 +22490,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -22506,107 +22507,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -22635,9 +22636,9 @@
       <selection activeCell="C33" sqref="C33:Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -22650,7 +22651,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -22697,12 +22698,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -22767,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -22832,16 +22833,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -22859,7 +22860,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -22877,13 +22878,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -22900,7 +22901,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -22918,7 +22919,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -22936,16 +22937,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -22963,7 +22964,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -22981,10 +22982,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -23031,12 +23032,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -23091,7 +23092,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -23142,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -23193,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -23248,7 +23249,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -23299,7 +23300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -23350,16 +23351,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -23413,7 +23414,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -23465,7 +23466,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -23517,7 +23518,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -23570,7 +23571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -23621,7 +23622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -23672,13 +23673,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -23697,7 +23698,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -23716,7 +23717,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -23735,7 +23736,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -23754,7 +23755,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -23773,7 +23774,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -23792,13 +23793,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -23817,7 +23818,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -23836,7 +23837,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -23855,7 +23856,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -23875,7 +23876,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -23894,7 +23895,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -23913,17 +23914,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -23940,7 +23941,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -23957,7 +23958,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -23974,7 +23975,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -23989,7 +23990,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -24006,7 +24007,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -24023,107 +24024,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -24152,9 +24153,9 @@
       <selection activeCell="C33" sqref="C33:Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -24167,7 +24168,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -24214,12 +24215,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -24284,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -24349,16 +24350,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -24376,7 +24377,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -24394,13 +24395,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -24417,7 +24418,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -24435,7 +24436,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -24453,16 +24454,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -24480,7 +24481,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -24498,10 +24499,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -24548,12 +24549,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -24610,7 +24611,7 @@
         <v>117.02048038788666</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -24661,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -24712,7 +24713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -24769,7 +24770,7 @@
         <v>394.08899683647684</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -24820,7 +24821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -24871,16 +24872,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -24934,7 +24935,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -24986,7 +24987,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -25038,7 +25039,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -25091,7 +25092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -25142,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -25193,13 +25194,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -25218,7 +25219,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -25237,7 +25238,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -25256,7 +25257,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -25275,7 +25276,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -25294,7 +25295,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -25313,13 +25314,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -25338,7 +25339,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -25357,7 +25358,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -25376,7 +25377,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -25396,7 +25397,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -25415,7 +25416,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -25434,17 +25435,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -25461,7 +25462,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -25478,7 +25479,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -25495,7 +25496,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -25510,7 +25511,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -25527,7 +25528,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -25544,107 +25545,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -25673,9 +25674,9 @@
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -25688,7 +25689,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -25735,12 +25736,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -25805,7 +25806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -25870,16 +25871,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -25897,7 +25898,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -25915,13 +25916,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -25938,7 +25939,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -25956,7 +25957,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -25977,16 +25978,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -26004,7 +26005,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -26022,10 +26023,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -26072,12 +26073,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -26132,7 +26133,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -26185,7 +26186,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -26238,7 +26239,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -26293,7 +26294,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -26346,7 +26347,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -26399,16 +26400,16 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -26462,7 +26463,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -26514,7 +26515,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -26566,7 +26567,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -26619,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -26670,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -26721,13 +26722,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -26746,7 +26747,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -26765,7 +26766,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -26784,7 +26785,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -26803,7 +26804,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -26822,7 +26823,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -26841,13 +26842,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -26866,7 +26867,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -26885,7 +26886,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -26904,7 +26905,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -26924,7 +26925,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -26943,7 +26944,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -26962,17 +26963,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -26989,7 +26990,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -27006,7 +27007,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -27023,7 +27024,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -27038,7 +27039,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -27055,7 +27056,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -27072,107 +27073,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -27201,9 +27202,9 @@
       <selection activeCell="C25" sqref="C25:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -27216,7 +27217,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -27263,12 +27264,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -27333,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -27398,16 +27399,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -27425,7 +27426,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -27443,13 +27444,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -27466,7 +27467,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -27484,7 +27485,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -27502,16 +27503,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -27529,7 +27530,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -27547,10 +27548,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -27597,12 +27598,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -27657,7 +27658,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -27710,7 +27711,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -27763,7 +27764,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -27818,7 +27819,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -27869,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -27920,16 +27921,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -27983,7 +27984,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -28035,7 +28036,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -28087,7 +28088,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -28140,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -28191,7 +28192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -28242,13 +28243,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -28267,7 +28268,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -28286,7 +28287,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -28305,7 +28306,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -28324,7 +28325,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -28343,7 +28344,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -28362,13 +28363,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -28387,7 +28388,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -28406,7 +28407,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -28425,7 +28426,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -28445,7 +28446,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -28464,7 +28465,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -28483,17 +28484,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -28510,7 +28511,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -28527,7 +28528,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -28544,7 +28545,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -28559,7 +28560,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -28576,7 +28577,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -28593,107 +28594,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -28722,9 +28723,9 @@
       <selection activeCell="V73" sqref="V73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -28737,7 +28738,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -28784,12 +28785,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -28854,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -28919,16 +28920,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -28946,7 +28947,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -28964,13 +28965,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -28987,7 +28988,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -29005,7 +29006,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -29023,16 +29024,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -29050,7 +29051,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -29068,10 +29069,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -29118,12 +29119,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -29178,7 +29179,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -29231,7 +29232,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -29284,7 +29285,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -29339,7 +29340,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -29390,7 +29391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -29441,16 +29442,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -29504,7 +29505,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -29556,7 +29557,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -29608,7 +29609,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -29661,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -29712,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -29763,13 +29764,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -29788,7 +29789,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -29807,7 +29808,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -29826,7 +29827,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -29845,7 +29846,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -29864,7 +29865,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -29883,13 +29884,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -29908,7 +29909,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -29927,7 +29928,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -29946,7 +29947,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -29966,7 +29967,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -29985,7 +29986,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -30004,17 +30005,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -30031,7 +30032,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -30048,7 +30049,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -30065,7 +30066,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -30080,7 +30081,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -30097,7 +30098,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -30114,107 +30115,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -30243,9 +30244,9 @@
       <selection activeCell="T147" sqref="T147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -30258,7 +30259,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -30305,12 +30306,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
@@ -30375,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -30440,16 +30441,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -30467,7 +30468,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -30485,13 +30486,13 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -30508,7 +30509,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -30526,7 +30527,7 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -30544,16 +30545,16 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -30571,7 +30572,7 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -30589,10 +30590,10 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -30639,12 +30640,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>0.25</v>
       </c>
@@ -30699,7 +30700,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
         <v>14</v>
@@ -30752,7 +30753,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -30805,7 +30806,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>1</v>
       </c>
@@ -30860,7 +30861,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -30911,7 +30912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>15</v>
@@ -30962,16 +30963,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>0.25</v>
       </c>
@@ -31025,7 +31026,7 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="10" t="s">
         <v>14</v>
@@ -31077,7 +31078,7 @@
       </c>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -31129,7 +31130,7 @@
       </c>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>1</v>
       </c>
@@ -31182,7 +31183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -31233,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -31284,13 +31285,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -31309,7 +31310,7 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7"/>
@@ -31328,7 +31329,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="32"/>
       <c r="B43" s="11"/>
       <c r="C43" s="7"/>
@@ -31347,7 +31348,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -31366,7 +31367,7 @@
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7"/>
@@ -31385,7 +31386,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
@@ -31404,13 +31405,13 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -31429,7 +31430,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="32"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7"/>
@@ -31448,7 +31449,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="32"/>
       <c r="B51" s="11"/>
       <c r="C51" s="7"/>
@@ -31467,7 +31468,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -31487,7 +31488,7 @@
       <c r="Q52" s="17"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="34"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7"/>
@@ -31506,7 +31507,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="7"/>
@@ -31525,17 +31526,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -31552,7 +31553,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -31569,7 +31570,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -31586,7 +31587,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="H67" s="7"/>
@@ -31601,7 +31602,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -31618,7 +31619,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -31635,107 +31636,107 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
@@ -31756,6 +31757,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD04C3C7A4624F4E9D53BDC0DE3E9B7E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb568f6d59f5eed75ca36ca525048d09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c013a390-6a41-41d7-a4aa-97299633717e" xmlns:ns3="84929144-d36a-41e1-af84-f5eaab08fb1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fdeaaf7d595c97e8280597517dfb70b" ns2:_="" ns3:_="">
     <xsd:import namespace="c013a390-6a41-41d7-a4aa-97299633717e"/>
@@ -31966,36 +31982,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB78706F-CD27-40DD-B7A3-0A2392D1E307}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C129E600-FF0C-4B68-A7F5-B4CE586B6248}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c013a390-6a41-41d7-a4aa-97299633717e"/>
-    <ds:schemaRef ds:uri="84929144-d36a-41e1-af84-f5eaab08fb1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32018,9 +32008,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C129E600-FF0C-4B68-A7F5-B4CE586B6248}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB78706F-CD27-40DD-B7A3-0A2392D1E307}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c013a390-6a41-41d7-a4aa-97299633717e"/>
+    <ds:schemaRef ds:uri="84929144-d36a-41e1-af84-f5eaab08fb1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>